--- a/senopati.xlsx
+++ b/senopati.xlsx
@@ -488,7 +488,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> Baxtersmith Dining, Lounge &amp; Roofbar Senopati    </v>
+        <v xml:space="preserve"> Siam Square </v>
       </c>
       <c r="B7" t="str">
         <v>Western, Italian</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve"> Brood En Boter </v>
+        <v xml:space="preserve"> Clay's Resto &amp; Cafe - Hotel Neo Tendean </v>
       </c>
       <c r="B8" t="str">
         <v xml:space="preserve">Indonesian, Asian, </v>
@@ -516,7 +516,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> Arcade </v>
+        <v xml:space="preserve"> Blumchen Coffee </v>
       </c>
       <c r="B9" t="str">
         <v>Asian, Western</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve"> SoulFood </v>
+        <v xml:space="preserve"> Emiko Soulfood </v>
       </c>
       <c r="B10" t="str">
         <v>Indonesian, Western</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> Central Restaurant Blok M </v>
+        <v xml:space="preserve"> Rawon Bar  </v>
       </c>
       <c r="B11" t="str">
         <v>Indonesian</v>
@@ -564,10 +564,10 @@
         <v>Western, Italian</v>
       </c>
       <c r="C12" t="str">
-        <v>Drinks, Lunch, Breakfast</v>
+        <v>Casual Dining, Bar, Live Band</v>
       </c>
       <c r="D12" t="str">
-        <v xml:space="preserve"> Casual Dining </v>
+        <v xml:space="preserve"> Steamed and fried Dimsums </v>
       </c>
     </row>
     <row r="13">
@@ -578,10 +578,10 @@
         <v xml:space="preserve">Indonesian, Asian, </v>
       </c>
       <c r="C13" t="str">
-        <v>Lunch, Breakfast</v>
+        <v>Bar, Live Band</v>
       </c>
       <c r="D13" t="str">
-        <v xml:space="preserve"> Bakery, eatery, coffee. We use natural ingredients. Chemicals free for all of our dishes. </v>
+        <v xml:space="preserve"> Cafe yang cocok untuk para pecinta coffe , Tikum diambil dari Titik Kumpul, sesuai dengan keinginan awal memiliki tempat kumpul yang strategis dan kopi serta kudapan , disini menyajikan coffe khas dan juga menu makanan yang beragam pilihan . </v>
       </c>
     </row>
     <row r="14">
@@ -592,10 +592,10 @@
         <v>Asian, Western</v>
       </c>
       <c r="C14" t="str">
-        <v>Dessert Parlor, Cafe &amp; Bistro, Drinks</v>
+        <v>Casual Dining, Restaurant, Family Dining</v>
       </c>
       <c r="D14" t="str">
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> Roomy, relaxed kitchen offering hearty Korean barbecue platters &amp; a selection of familiar sides. </v>
       </c>
     </row>
     <row r="15">
@@ -606,10 +606,7 @@
         <v>Indonesian, Western</v>
       </c>
       <c r="C15" t="str">
-        <v>Cafe &amp; Bistro, Drinks</v>
-      </c>
-      <c r="D15" t="str">
-        <v xml:space="preserve">  </v>
+        <v>Restaurant, Family Dining</v>
       </c>
     </row>
     <row r="16">
@@ -620,10 +617,7 @@
         <v>Indonesian</v>
       </c>
       <c r="C16" t="str">
-        <v>Casual Dining</v>
-      </c>
-      <c r="D16" t="str">
-        <v xml:space="preserve"> casual dining </v>
+        <v>Casual Dining, Bar</v>
       </c>
     </row>
     <row r="17">
@@ -634,10 +628,10 @@
         <v xml:space="preserve">Western, Indonesian, </v>
       </c>
       <c r="C17" t="str">
-        <v>Casual Dining, Bar, Live Band</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve"> Steamed and fried Dimsums </v>
+        <v xml:space="preserve"> The 1st Japanese Curry </v>
       </c>
     </row>
     <row r="18">
@@ -648,10 +642,10 @@
         <v>Indonesian, Asian</v>
       </c>
       <c r="C18" t="str">
-        <v>Bar, Live Band</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D18" t="str">
-        <v xml:space="preserve"> Cafe yang cocok untuk para pecinta coffe , Tikum diambil dari Titik Kumpul, sesuai dengan keinginan awal memiliki tempat kumpul yang strategis dan kopi serta kudapan , disini menyajikan coffe khas dan juga menu makanan yang beragam pilihan . </v>
+        <v xml:space="preserve"> The 1st Japanese Curry </v>
       </c>
     </row>
     <row r="19">
@@ -662,7 +656,7 @@
         <v>Chinese, Asian</v>
       </c>
       <c r="C19" t="str">
-        <v>Casual Dining, Restaurant, Family Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D19" t="str">
         <v xml:space="preserve"> Roomy, relaxed kitchen offering hearty Korean barbecue platters &amp; a selection of familiar sides. </v>
@@ -676,7 +670,10 @@
         <v>Italian</v>
       </c>
       <c r="C20" t="str">
-        <v>Restaurant, Family Dining</v>
+        <v>Casual Dining</v>
+      </c>
+      <c r="D20" t="str">
+        <v xml:space="preserve"> You can search all food on Foodpedia </v>
       </c>
     </row>
     <row r="21">
@@ -687,7 +684,10 @@
         <v>Indonesian</v>
       </c>
       <c r="C21" t="str">
-        <v>Casual Dining, Bar</v>
+        <v>Casual Dining</v>
+      </c>
+      <c r="D21" t="str">
+        <v xml:space="preserve"> You can search all food on Foodpedia </v>
       </c>
     </row>
     <row r="22">
@@ -701,7 +701,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D22" t="str">
-        <v xml:space="preserve"> The 1st Japanese Curry </v>
+        <v xml:space="preserve"> You can search all food on Foodpedia </v>
       </c>
     </row>
     <row r="23">
@@ -715,7 +715,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D23" t="str">
-        <v xml:space="preserve"> The 1st Japanese Curry </v>
+        <v xml:space="preserve"> Union is where Jakarta’s residents go when they want quality bistro fare, well-made cocktails and the best cakes the city offers. Scattered throughout some of the city’s most dynamic areas, customers can always expect to see the brand’s </v>
       </c>
     </row>
     <row r="24">
@@ -729,7 +729,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D24" t="str">
-        <v xml:space="preserve"> Roomy, relaxed kitchen offering hearty Korean barbecue platters &amp; a selection of familiar sides. </v>
+        <v xml:space="preserve"> Bustling, contemporary cafe with a stylish interior, light local eats &amp; a popular brunch menu </v>
       </c>
     </row>
     <row r="25">
@@ -743,7 +743,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D25" t="str">
-        <v xml:space="preserve"> You can search all food on Foodpedia </v>
+        <v xml:space="preserve"> Union is where Jakarta’s residents go when they want quality bistro fare, well-made cocktails and the best cakes the city offers. Scattered throughout some of the city’s most dynamic areas, customers can always expect to see the brand’s signature interiors, yet should always look... </v>
       </c>
     </row>
     <row r="26">
@@ -757,7 +757,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D26" t="str">
-        <v xml:space="preserve"> You can search all food on Foodpedia </v>
+        <v xml:space="preserve"> Using only the region’s finest and freshest ingredients, Benedict aims to bring hearty all-day breakfast dishes and decadent desserts to your table. We also take pride in our coffee. We provide a range of beautifully brewed coffee that appeals to every taste, from a bold and rich... </v>
       </c>
     </row>
     <row r="27">
@@ -832,7 +832,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve"> Foodpedia by Pasta Kangen </v>
+        <v xml:space="preserve"> Pancious </v>
       </c>
       <c r="B32" t="str">
         <v>Western, Italian</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve"> Union Cafe </v>
+        <v xml:space="preserve"> Exquise Patisserie </v>
       </c>
       <c r="B33" t="str">
         <v>Indonesian, Western</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve"> Pison Coffee </v>
+        <v xml:space="preserve"> Old Temple by Holywings </v>
       </c>
       <c r="B34" t="str">
         <v>Indonesian, American</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve"> Union </v>
+        <v xml:space="preserve"> Takumi Robata and Sushi </v>
       </c>
       <c r="B35" t="str">
         <v>Japanese, Sushi</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve"> Benedict </v>
+        <v xml:space="preserve"> Cascade Lounge at Mulia </v>
       </c>
       <c r="B36" t="str">
         <v>International</v>
@@ -1042,72 +1042,72 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve"> Tesate </v>
+        <v xml:space="preserve"> Plataran Tiga Dari </v>
       </c>
       <c r="B47" t="str">
         <v>Indonesian</v>
       </c>
       <c r="C47" t="str">
-        <v>Casual Dining</v>
+        <v>Fine Dining</v>
       </c>
       <c r="D47" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
+        <v xml:space="preserve"> Hutan Kota Plataran </v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve"> ARTOZ Whisky and Cognac Bar </v>
+        <v xml:space="preserve"> Tekote </v>
       </c>
       <c r="B48" t="str">
-        <v>Finger Food</v>
+        <v>Indonesian</v>
       </c>
       <c r="C48" t="str">
-        <v>Casual Dining, Bar</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D48" t="str">
-        <v xml:space="preserve"> Classic cocktails &amp; a wide inventory of single malts on offer in this sophisticated tavern. </v>
+        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan. </v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve"> TWG Tea Salon &amp; Boutique  </v>
+        <v xml:space="preserve"> NSNTR Restaurant &amp; Bar - Mercure Jakarta PIK </v>
       </c>
       <c r="B49" t="str">
-        <v xml:space="preserve">Asian, Western, </v>
+        <v>Indonesian</v>
       </c>
       <c r="C49" t="str">
-        <v>Cafe, Casual Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D49" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
+        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan . </v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v xml:space="preserve"> Penyetan Cok </v>
+        <v xml:space="preserve">  Cutt &amp; Grill </v>
       </c>
       <c r="B50" t="str">
-        <v>Western, Teas</v>
+        <v>Western</v>
       </c>
       <c r="C50" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D50" t="str">
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> Sophisticated dining room with an upscale vibe turning out grilled steaks, chicken &amp; seafood </v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v xml:space="preserve"> MM Juice </v>
+        <v xml:space="preserve"> Taliwang Bali </v>
       </c>
       <c r="B51" t="str">
-        <v>Indonesian, Java</v>
+        <v>Balinese</v>
       </c>
       <c r="C51" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D51" t="str">
-        <v xml:space="preserve"> Menyediakan berbagai macam masakan Indonesia Tradisional, Oriental dan Jus Buah serta Sayuran segar  </v>
+        <v xml:space="preserve"> Balinese and Lombok Specialty </v>
       </c>
     </row>
     <row r="52">
@@ -1322,72 +1322,72 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v xml:space="preserve"> View - Fairmont Jakarta </v>
+        <v xml:space="preserve"> 1945 Restaurant - Fairmont Jakarta  </v>
       </c>
       <c r="B67" t="str">
-        <v>Western</v>
+        <v>Indonesian</v>
       </c>
       <c r="C67" t="str">
-        <v>Casual Dining</v>
+        <v>Fine Dining</v>
       </c>
       <c r="D67" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
+        <v xml:space="preserve"> Indulge in authentic Northern Italian cuisine at the Jakarta’s premier Italian restaurant. Sample the myriad of dishes from our extensive menu, specially prepared using only the freshest ingredients by our Italian Chef and his culinary team. Choose the perfect wine to complement ... </v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v xml:space="preserve"> House of Yuen - Fairmont Jakarta </v>
+        <v xml:space="preserve"> Sapori Deli - Fairmont Jakarta </v>
       </c>
       <c r="B68" t="str">
-        <v>Chinese</v>
+        <v>Italian</v>
       </c>
       <c r="C68" t="str">
-        <v>Casual Dining</v>
+        <v>Fine Dining</v>
       </c>
       <c r="D68" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
+        <v xml:space="preserve"> Open 24 hours daily and featuring luxurious décor along with exceptional service, a meal at The Café will satisfy your palate no matter the time of the day! Children will have their own playground at the Kids Corner with innovative games and a children’s buffet. The Kids Corner i... </v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v xml:space="preserve"> Taliwang Bali </v>
+        <v xml:space="preserve"> Peacock Lounge - Fairmont Jakarta </v>
       </c>
       <c r="B69" t="str">
-        <v>Balinese</v>
+        <v>Western</v>
       </c>
       <c r="C69" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D69" t="str">
-        <v xml:space="preserve"> Balinese and Lombok Specialty </v>
+        <v xml:space="preserve"> Menyediakan berbagai macam masakan Indonesia Tradisional, Oriental dan Jus Buah serta Sayuran segar  </v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v xml:space="preserve"> Resto d'SDL </v>
+        <v xml:space="preserve"> Senshu Japanese Restaurant - Fairmont Jakarta </v>
       </c>
       <c r="B70" t="str">
-        <v>Sundanese</v>
+        <v>Western</v>
       </c>
       <c r="C70" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D70" t="str">
-        <v xml:space="preserve"> Enjoy The Authentic Sundanese Cuisine </v>
+        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v xml:space="preserve"> Orient8 </v>
+        <v xml:space="preserve"> K22 Bar - Fairmont Jakarta </v>
       </c>
       <c r="B71" t="str">
-        <v>French, Asian</v>
+        <v>Western</v>
       </c>
       <c r="C71" t="str">
-        <v>Fine Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D71" t="str">
-        <v xml:space="preserve"> Hotel Mulia Jakarta invites you to enjoy a fusion epicurean indulgence at Orient8, a fine dining restaurant uniquely serving French and Asian cuisine including Thai, and Vietnamese. Each culinary concoction is presented to reflect Orient8’s cozy yet elegant French colonial interi... </v>
+        <v xml:space="preserve"> Bakmi Naga adalah Restaurant yang menyajikan berbagai Bakmi berkualitas dan Halal sejak dari 1979 </v>
       </c>
     </row>
     <row r="72">
@@ -1398,10 +1398,10 @@
         <v>Italian</v>
       </c>
       <c r="C72" t="str">
-        <v>Casual Dining</v>
+        <v>Fine Dining</v>
       </c>
       <c r="D72" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
+        <v xml:space="preserve"> Indulge in authentic Northern Italian cuisine at the Jakarta’s premier Italian restaurant. Sample the myriad of dishes from our extensive menu, specially prepared using only the freshest ingredients by our Italian Chef and his culinary team. Choose the perfect wine to complement ... </v>
       </c>
     </row>
     <row r="73">
@@ -1412,10 +1412,10 @@
         <v>International</v>
       </c>
       <c r="C73" t="str">
-        <v>Casual Dining</v>
+        <v>Fine Dining</v>
       </c>
       <c r="D73" t="str">
-        <v xml:space="preserve"> Bakmi Naga adalah Restaurant yang menyajikan berbagai Bakmi berkualitas dan Halal sejak dari 1979 </v>
+        <v xml:space="preserve"> Open 24 hours daily and featuring luxurious décor along with exceptional service, a meal at The Café will satisfy your palate no matter the time of the day! Children will have their own playground at the Kids Corner with innovative games and a children’s buffet. The Kids Corner i... </v>
       </c>
     </row>
     <row r="74">
@@ -1429,7 +1429,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D74" t="str">
-        <v xml:space="preserve"> Bakmi Naga adalah Restaurant yang menyajikan berbagai Bakmi berkualitas dan Halal sejak dari 1979 </v>
+        <v xml:space="preserve"> Menyediakan berbagai macam masakan Indonesia Tradisional, Oriental dan Jus Buah serta Sayuran segar  </v>
       </c>
     </row>
     <row r="75">
@@ -1443,7 +1443,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D75" t="str">
-        <v xml:space="preserve"> Stacking with Real Goodness </v>
+        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
       </c>
     </row>
     <row r="76">
@@ -1457,7 +1457,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D76" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan yang akan disajikan </v>
+        <v xml:space="preserve"> Bakmi Naga adalah Restaurant yang menyajikan berbagai Bakmi berkualitas dan Halal sejak dari 1979 </v>
       </c>
     </row>
     <row r="77">
@@ -1602,7 +1602,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v xml:space="preserve"> Gyu - Kaku Japanese BBQ </v>
+        <v xml:space="preserve"> Chopstix </v>
       </c>
       <c r="B87" t="str">
         <v>Japanese</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v xml:space="preserve"> Boca Rica Tapas Bar &amp; Lounge </v>
+        <v xml:space="preserve"> Chief Cofee  </v>
       </c>
       <c r="B88" t="str">
         <v>Western</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v xml:space="preserve"> Born Ga </v>
+        <v xml:space="preserve"> Sushi Hiro </v>
       </c>
       <c r="B89" t="str">
-        <v>Chinese</v>
+        <v>Korean</v>
       </c>
       <c r="C89" t="str">
         <v>Casual Dining</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v xml:space="preserve"> Born Ga </v>
+        <v xml:space="preserve"> Yakitori Chidori Restaurant - Crowne Plaza Jakarta </v>
       </c>
       <c r="B90" t="str">
-        <v>Chinese</v>
+        <v>Korean</v>
       </c>
       <c r="C90" t="str">
         <v>Casual Dining</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v xml:space="preserve"> Honest Spoon </v>
+        <v xml:space="preserve"> Beranda Cafe - Crowne Plaza </v>
       </c>
       <c r="B91" t="str">
-        <v>Steaks</v>
+        <v>Western</v>
       </c>
       <c r="C91" t="str">
         <v>Casual Dining</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v xml:space="preserve"> Tiga Wonton </v>
+        <v xml:space="preserve"> Dewa Rasa Resto </v>
       </c>
       <c r="B102" t="str">
-        <v>Chinese</v>
+        <v>Indonesian</v>
       </c>
       <c r="C102" t="str">
         <v>Casual Dining</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v xml:space="preserve"> Gyu - Kaku Prime </v>
+        <v xml:space="preserve"> Kabuto Black </v>
       </c>
       <c r="B103" t="str">
         <v>Japanese</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v xml:space="preserve"> Bangkok Kaki Lima </v>
+        <v xml:space="preserve"> Roku Boardgame &amp; Cafe </v>
       </c>
       <c r="B104" t="str">
-        <v>Thai, Malaysian</v>
+        <v>Western</v>
       </c>
       <c r="C104" t="str">
         <v>Casual Dining</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v xml:space="preserve"> Raa Cha </v>
+        <v xml:space="preserve"> Mujigae </v>
       </c>
       <c r="B105" t="str">
-        <v>Thai</v>
+        <v>Korean</v>
       </c>
       <c r="C105" t="str">
         <v>Casual Dining</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v xml:space="preserve"> Seroeni </v>
+        <v xml:space="preserve"> Cali Deli Madame Ching </v>
       </c>
       <c r="B106" t="str">
-        <v>Malaysian, Chinese</v>
+        <v>Vietnamese</v>
       </c>
       <c r="C106" t="str">
         <v>Casual Dining</v>
@@ -2019,7 +2019,7 @@
         <v xml:space="preserve"> Pippo </v>
       </c>
       <c r="B117" t="str">
-        <v>Indonesian</v>
+        <v>Asian</v>
       </c>
       <c r="C117" t="str">
         <v>Casual Dining</v>
@@ -2033,7 +2033,7 @@
         <v xml:space="preserve"> Tobak </v>
       </c>
       <c r="B118" t="str">
-        <v>Asian</v>
+        <v>Korean</v>
       </c>
       <c r="C118" t="str">
         <v>Casual Dining</v>
@@ -2047,7 +2047,7 @@
         <v xml:space="preserve"> Dapoer Ciragil </v>
       </c>
       <c r="B119" t="str">
-        <v>Chinese</v>
+        <v>Korean</v>
       </c>
       <c r="C119" t="str">
         <v>Casual Dining</v>
@@ -2061,7 +2061,7 @@
         <v xml:space="preserve"> EASTERN OPULENCE </v>
       </c>
       <c r="B120" t="str">
-        <v>Italian, Western</v>
+        <v>Western, Mexican</v>
       </c>
       <c r="C120" t="str">
         <v>Casual Dining</v>
@@ -2075,7 +2075,7 @@
         <v xml:space="preserve"> William's </v>
       </c>
       <c r="B121" t="str">
-        <v>Japanese</v>
+        <v xml:space="preserve">Western, Italian, </v>
       </c>
       <c r="C121" t="str">
         <v>Casual Dining, Cafe, Coffee Shop</v>
@@ -2092,7 +2092,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D122" t="str">
-        <v xml:space="preserve"> A Comfort Bakmi &amp; Coffee Place </v>
+        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan. </v>
       </c>
     </row>
     <row r="123">
@@ -2106,7 +2106,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D123" t="str">
-        <v xml:space="preserve"> Traditional Korean fare on offer in a light-filled, contemporary space with tabletop grills. </v>
+        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan </v>
       </c>
     </row>
     <row r="124">
@@ -2120,7 +2120,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D124" t="str">
-        <v xml:space="preserve"> Mukbang Korean food di sini aja harga terjangkau dan banyak pilihannya. An.Nyeong </v>
+        <v xml:space="preserve"> A new dining and music destination by @swillfam Group &amp; ADB investment. </v>
       </c>
     </row>
     <row r="125">
@@ -2133,9 +2133,6 @@
       <c r="C125" t="str">
         <v>Casual Dining</v>
       </c>
-      <c r="D125" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dengan berbagai menu pilihan . </v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -2214,35 +2211,35 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v xml:space="preserve"> DimSum 48  </v>
+        <v xml:space="preserve"> Dapour  </v>
       </c>
       <c r="B132" t="str">
-        <v>Indonesian</v>
+        <v xml:space="preserve">Indonesian, Jawa, </v>
       </c>
       <c r="C132" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D132" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dan teman dengan berbagai menu pilihan dan juga dengan konsep yang restaurant yang begitu menarik . </v>
+        <v xml:space="preserve"> Beautifully designed and exuding a warm and cosy atmosphere, Dapour is an all-day dining restaurant in Jakarta, serving authentic Indonesian and International cuisines. From a large open kitchen and live cooking stations, our chefs showcase their expertise, turning fresh ingredie... </v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v xml:space="preserve"> Babooji </v>
+        <v xml:space="preserve"> Kamadoya Nizaemon   </v>
       </c>
       <c r="B133" t="str">
-        <v>Indian, Modern Indian</v>
+        <v>Jawa, Sundanese</v>
       </c>
       <c r="C133" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D133" t="str">
-        <v xml:space="preserve"> Bengawan Solo Coffee adalah Cafe yang menyediakan berbagai macam kopi yang berkualitas </v>
+        <v xml:space="preserve"> KAMADOYA NIZAEMON is a Japanese Restaurant established in march 2018. The authentic Japanese ambience in Kamadoya Nizaemon is designed by Akira Sugihara Sensei, a well known interior design whom have designed many high end restaurant in Japan. Our design philosophy is “KYO MACHIY... </v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v xml:space="preserve"> Mottomoo </v>
+        <v xml:space="preserve"> 100 Eatery &amp; Bar   </v>
       </c>
       <c r="B134" t="str">
         <v>Japanese</v>
@@ -2251,29 +2248,29 @@
         <v>Casual Dining</v>
       </c>
       <c r="D134" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dan teman, cocok untuk para pecinta kuliner masakan jepang </v>
+        <v xml:space="preserve"> Located adjacent to Dapour , 100 Eatery and Bar is a perfect place to hold your casual meeting and socializing. The high floor-to-ceiling windows allow an abundant natural daylight giving an airy and light ambiance. This Jakarta bar also serves as a restaurant to host your small,... </v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v xml:space="preserve"> The Swillhouse </v>
+        <v xml:space="preserve"> Glitik Indonesia Eatery </v>
       </c>
       <c r="B135" t="str">
-        <v>Western</v>
+        <v>Asian, Western</v>
       </c>
       <c r="C135" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D135" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dan teman dengan beberapa pilihan menu yang menarik dan cocok untuk para pecinta kuliner  </v>
+        <v xml:space="preserve"> Restaurant yang pas untuk menikmati berbagai menu pilihan yang pasti nya akan membuat para pecinta kuliner sangant menikmati sajian hidangan yang restaurant kita miliki . </v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v xml:space="preserve"> Billions </v>
+        <v xml:space="preserve"> Pao Pao Liquor Bar &amp; Dimsum </v>
       </c>
       <c r="B136" t="str">
-        <v>Indonesian</v>
+        <v>Indonesian, Jawa</v>
       </c>
       <c r="C136" t="str">
         <v>Casual Dining</v>
@@ -2281,35 +2278,35 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v xml:space="preserve"> Wa Chu Want </v>
+        <v xml:space="preserve"> Dapour  </v>
       </c>
       <c r="B137" t="str">
-        <v>Asian</v>
+        <v xml:space="preserve">Indonesian, Jawa, </v>
       </c>
       <c r="C137" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D137" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dan teman dengan berbagai menu pilihan dan juga dengan konsep yang restaurant yang begitu menarik . </v>
+        <v xml:space="preserve"> Dapur-nya Ruma. Resep masakan asli Indonesia </v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v xml:space="preserve"> Bengawan Solo Coffee </v>
+        <v xml:space="preserve"> Kamadoya Nizaemon   </v>
       </c>
       <c r="B138" t="str">
-        <v>Indonesian</v>
+        <v>Jawa, Sundanese</v>
       </c>
       <c r="C138" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D138" t="str">
-        <v xml:space="preserve"> Bengawan Solo Coffee adalah Cafe yang menyediakan berbagai macam kopi yang berkualitas </v>
+        <v xml:space="preserve"> A Full- Service boutique restaurant and bar. Serving our guests with a fine flavor of favor </v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v xml:space="preserve"> Shabu Ghin </v>
+        <v xml:space="preserve"> 100 Eatery &amp; Bar   </v>
       </c>
       <c r="B139" t="str">
         <v>Japanese</v>
@@ -2318,32 +2315,35 @@
         <v>Casual Dining</v>
       </c>
       <c r="D139" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dan teman, cocok untuk para pecinta kuliner masakan jepang </v>
+        <v xml:space="preserve"> Restaurant  yang pas untuk berkumpul bersama keluarga , teman karena restaurant ini memiliki konsep yang unik dengan pemandangan Rooftop , lalu menu menu makanan pilihan dari mulai masakan asia sampai masakan western cocok untuk para pecinta kuliner . </v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v xml:space="preserve"> Cafe De Burse </v>
+        <v xml:space="preserve"> Glitik Indonesia Eatery </v>
       </c>
       <c r="B140" t="str">
-        <v>Western, Italian</v>
+        <v>Asian, Western</v>
       </c>
       <c r="C140" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Restaurant &amp; Bar</v>
       </c>
       <c r="D140" t="str">
-        <v xml:space="preserve"> Restaurant yang pas untuk makan bersama keluarga dan teman dengan beberapa pilihan menu yang menarik dan cocok untuk para pecinta kuliner  </v>
+        <v xml:space="preserve"> Urban Bar and Kitchen with Live Music </v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v xml:space="preserve"> Negiya Dining </v>
+        <v xml:space="preserve"> Pao Pao Liquor Bar &amp; Dimsum </v>
       </c>
       <c r="B141" t="str">
-        <v>Japanese</v>
+        <v>Indonesian, Jawa</v>
       </c>
       <c r="C141" t="str">
         <v>Casual Dining</v>
+      </c>
+      <c r="D141" t="str">
+        <v xml:space="preserve"> Traditional Korean eats, including bulgogi &amp; a wide range of sides, dished up in a casual space. </v>
       </c>
     </row>
     <row r="142">
@@ -2418,142 +2418,142 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v xml:space="preserve"> Yoiko Ramen 415 </v>
+        <v xml:space="preserve"> Bebek Renon </v>
       </c>
       <c r="B147" t="str">
-        <v>Japanese</v>
+        <v>Balinese</v>
       </c>
       <c r="C147" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D147" t="str">
-        <v xml:space="preserve"> Yoiko Ramen 415 adalah Restaurant yang menyajikan makanan khas Jepang </v>
+        <v xml:space="preserve"> Bebek Renon menyajikan Makanan khas Indonesia dengan berbagai varian Menu yang lezat dan terjangkau </v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v xml:space="preserve"> Korean BBQ Gahyo </v>
+        <v xml:space="preserve"> Fujin Japanese Teppanyaki &amp; Sake </v>
       </c>
       <c r="B148" t="str">
-        <v>Korean</v>
+        <v>Japanese</v>
       </c>
       <c r="C148" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D148" t="str">
-        <v xml:space="preserve"> Gahyo adalah restoran korea yang menyediakan menu khusus masakan asli korea. </v>
+        <v xml:space="preserve"> Restoran otentik Jepang interiornya bikin  kalian akan serasa makan di restoran di Jepang dan restoran yang pas untuk makan bersama keluarga . </v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v xml:space="preserve"> Wilshire </v>
+        <v xml:space="preserve"> Yoiko Ramen 415 </v>
       </c>
       <c r="B149" t="str">
-        <v>Western</v>
+        <v>Japanese</v>
       </c>
       <c r="C149" t="str">
-        <v>Casual Dining, Lounge</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D149" t="str">
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> Yoiko Ramen 415 menyajikan makanan khas Jepang </v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v xml:space="preserve"> Fish &amp; Co. </v>
+        <v xml:space="preserve"> Jjang Korean Noodle, Grill &amp; Chikin </v>
       </c>
       <c r="B150" t="str">
-        <v>Seafood, Mediterranean</v>
+        <v>Korean</v>
       </c>
       <c r="C150" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D150" t="str">
-        <v xml:space="preserve"> We are a casual, full service, family chain restaurant serving fresh seafood in a pan Our unique dining experience drew inspiration from the simple practices of the fishermen in the Mediterranean Sea </v>
+        <v xml:space="preserve"> One Korean Place for everything NO PORK NO LARD </v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v xml:space="preserve"> Tom Sushi </v>
+        <v xml:space="preserve"> 88 Korean Kitchen </v>
       </c>
       <c r="B151" t="str">
-        <v>Japanese</v>
+        <v>Korean</v>
       </c>
       <c r="C151" t="str">
-        <v>Family Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D151" t="str">
-        <v xml:space="preserve"> Simplicity Halal Sushi </v>
+        <v xml:space="preserve"> 88 Korean Kitchen menyajikan makanan Korean Cuisine </v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v xml:space="preserve"> Yoiko Ramen 415 </v>
+        <v xml:space="preserve"> Bebek Renon </v>
       </c>
       <c r="B152" t="str">
-        <v>Japanese</v>
+        <v>Balinese</v>
       </c>
       <c r="C152" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D152" t="str">
-        <v xml:space="preserve"> Yoiko Ramen 415 adalah Restaurant yang menyajikan makanan khas Jepang </v>
+        <v xml:space="preserve"> Bebek Renon menyajikan Makanan khas Indonesia dengan berbagai varian Menu yang lezat dan terjangkau </v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v xml:space="preserve"> Korean BBQ Gahyo </v>
+        <v xml:space="preserve"> Fujin Japanese Teppanyaki &amp; Sake </v>
       </c>
       <c r="B153" t="str">
-        <v>Korean</v>
+        <v>Japanese</v>
       </c>
       <c r="C153" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D153" t="str">
-        <v xml:space="preserve"> Gahyo adalah restoran korea yang menyediakan menu khusus masakan asli korea. </v>
+        <v xml:space="preserve"> Restoran otentik Jepang interiornya bikin  kalian akan serasa makan di restoran di Jepang dan restoran yang pas untuk makan bersama keluarga . </v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v xml:space="preserve"> Wilshire </v>
+        <v xml:space="preserve"> Yoiko Ramen 415 </v>
       </c>
       <c r="B154" t="str">
-        <v>Western</v>
+        <v>Japanese</v>
       </c>
       <c r="C154" t="str">
-        <v>Casual Dining, Lounge</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D154" t="str">
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> Yoiko Ramen 415 menyajikan makanan khas Jepang </v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v xml:space="preserve"> Fish &amp; Co. </v>
+        <v xml:space="preserve"> Jjang Korean Noodle, Grill &amp; Chikin </v>
       </c>
       <c r="B155" t="str">
-        <v>Seafood, Mediterranean</v>
+        <v>Korean</v>
       </c>
       <c r="C155" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D155" t="str">
-        <v xml:space="preserve"> We are a casual, full service, family chain restaurant serving fresh seafood in a pan Our unique dining experience drew inspiration from the simple practices of the fishermen in the Mediterranean Sea </v>
+        <v xml:space="preserve"> One Korean Place for everything NO PORK NO LARD </v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v xml:space="preserve"> Tom Sushi </v>
+        <v xml:space="preserve"> 88 Korean Kitchen </v>
       </c>
       <c r="B156" t="str">
-        <v>Japanese</v>
+        <v>Korean</v>
       </c>
       <c r="C156" t="str">
-        <v>Family Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D156" t="str">
-        <v xml:space="preserve"> Simplicity Halal Sushi </v>
+        <v xml:space="preserve"> 88 Korean Kitchen menyajikan makanan Korean Cuisine </v>
       </c>
     </row>
     <row r="157">
@@ -2561,13 +2561,13 @@
         <v xml:space="preserve"> Kafe Batik </v>
       </c>
       <c r="B157" t="str">
-        <v>Indonesian</v>
+        <v>Western, Indonesian</v>
       </c>
       <c r="C157" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Cafe, Restaurant &amp; Bar</v>
       </c>
       <c r="D157" t="str">
-        <v xml:space="preserve"> Kafe Batik adalah Cafe yang nyaman untuk nongkrong bersama teman dan keluarga </v>
+        <v xml:space="preserve"> Coffee | Restaurant | Bar </v>
       </c>
     </row>
     <row r="158">
@@ -2575,13 +2575,13 @@
         <v xml:space="preserve"> TomTom </v>
       </c>
       <c r="B158" t="str">
-        <v>Thai</v>
+        <v>Indonesian</v>
       </c>
       <c r="C158" t="str">
-        <v>Casual Dining</v>
+        <v>Cafe, Restaurant &amp; Bar</v>
       </c>
       <c r="D158" t="str">
-        <v xml:space="preserve"> Establishment of Modern Thai Culinary since 2014 </v>
+        <v xml:space="preserve"> Ragil Coffee &amp; Roastery adalah Coffee Shop yang nyaman dan asik untuk kumpul bersama kerabat dan keluarga </v>
       </c>
     </row>
     <row r="159">
@@ -2589,13 +2589,13 @@
         <v xml:space="preserve"> Ichiban Sushi </v>
       </c>
       <c r="B159" t="str">
-        <v>Japanese</v>
+        <v xml:space="preserve">Western, Italian, </v>
       </c>
       <c r="C159" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Coffee Shop, Cafe</v>
       </c>
       <c r="D159" t="str">
-        <v xml:space="preserve"> Indonesias Fist, Biggest, and happiest sushi chain </v>
+        <v xml:space="preserve"> Modern Asian-Australian Cafe that aspires to bring nothing but the best on the table </v>
       </c>
     </row>
     <row r="160">
@@ -2603,13 +2603,13 @@
         <v xml:space="preserve"> Ichiban Sushi </v>
       </c>
       <c r="B160" t="str">
-        <v>Japanese</v>
+        <v>Italian, Asian</v>
       </c>
       <c r="C160" t="str">
-        <v>Casual Dining</v>
+        <v>Coffee Shop, Cafe</v>
       </c>
       <c r="D160" t="str">
-        <v xml:space="preserve"> Indonesias Fist, Biggest, and happiest sushi chain </v>
+        <v xml:space="preserve"> Modern Fusion Australian brunch &amp; dinning </v>
       </c>
     </row>
     <row r="161">
@@ -2617,83 +2617,83 @@
         <v xml:space="preserve"> Kimukatsu  </v>
       </c>
       <c r="B161" t="str">
-        <v>Japanese</v>
+        <v xml:space="preserve">Western, Italian, </v>
       </c>
       <c r="C161" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Cafe</v>
       </c>
       <c r="D161" t="str">
-        <v xml:space="preserve"> The Only Restaurant in the world that offers a mile feuille katsu in multiple flavors.  </v>
+        <v xml:space="preserve"> Amuz, dalam bahasa Prancis berarti menghibur dan menyenangkan, Pintu besar nan megah mengantar penikmat kuliner memasuki restoran fine dining seluas 350 meter persegi ini. Anda akan mengalami suasana ala Prancis diiringi alunan musik haluS, Kilauan cahaya yang dihasilkan dari lam... </v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v xml:space="preserve"> GIOI </v>
+        <v xml:space="preserve"> Little League </v>
       </c>
       <c r="B162" t="str">
-        <v>Asian</v>
+        <v>Western, Indonesian</v>
       </c>
       <c r="C162" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Cafe, Restaurant &amp; Bar</v>
       </c>
       <c r="D162" t="str">
-        <v xml:space="preserve"> Restaurant nyaman untuk membawa keluarga atau makan malam bersama pasangan , Restaurant yang didesain homey, terlihat dari meja-mejanya yang besar seperti berada di ruangan makan membuat para pecinta kuliner menjadi nyaman  </v>
+        <v xml:space="preserve"> Coffee | Restaurant | Bar </v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v xml:space="preserve"> Massto Bistro </v>
+        <v xml:space="preserve"> Ragil Coffee &amp; Roastery  </v>
       </c>
       <c r="B163" t="str">
-        <v>Western</v>
+        <v>Indonesian</v>
       </c>
       <c r="C163" t="str">
-        <v>Casual Dining, Cafe</v>
+        <v>Cafe, Restaurant &amp; Bar</v>
       </c>
       <c r="D163" t="str">
-        <v xml:space="preserve"> Bringing humble, bistro food to the most happening area in Gunawarman, South Jakarta from Radian Rahmananta and the team.Authentic style of Western Bistro, enjoy our special Grilled Chicken Breast with Honey Mustard, Beef Carrot Stew, Cuban Sandwhich or Panseared Salmon special d... </v>
+        <v xml:space="preserve"> Ragil Coffee &amp; Roastery adalah Coffee Shop yang nyaman dan asik untuk kumpul bersama kerabat dan keluarga </v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v xml:space="preserve"> The Buffalo  </v>
+        <v xml:space="preserve"> Myriad Bistro </v>
       </c>
       <c r="B164" t="str">
-        <v>American</v>
+        <v xml:space="preserve">Western, Italian, </v>
       </c>
       <c r="C164" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Coffee Shop, Cafe</v>
       </c>
       <c r="D164" t="str">
-        <v xml:space="preserve"> The Original Spicy &amp; Tangy Buffalo Chicken </v>
+        <v xml:space="preserve"> Modern Asian-Australian Cafe that aspires to bring nothing but the best on the table </v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v xml:space="preserve"> Sapo Oriental </v>
+        <v xml:space="preserve"> Burns Cafe  </v>
       </c>
       <c r="B165" t="str">
-        <v>Chinese</v>
+        <v>Italian, Asian</v>
       </c>
       <c r="C165" t="str">
-        <v>Casual Dining</v>
+        <v>Coffee Shop, Cafe</v>
       </c>
       <c r="D165" t="str">
-        <v xml:space="preserve"> Sapo Oriental </v>
+        <v xml:space="preserve"> Modern Fusion Australian brunch &amp; dinning </v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v xml:space="preserve"> NOBLE by Zab Thai </v>
+        <v xml:space="preserve"> Amuz </v>
       </c>
       <c r="B166" t="str">
-        <v>Thai</v>
+        <v xml:space="preserve">Western, Italian, </v>
       </c>
       <c r="C166" t="str">
-        <v>Casual Dining, Lounge, Wine Cellar</v>
+        <v>Casual Dining, Cafe</v>
       </c>
       <c r="D166" t="str">
-        <v xml:space="preserve"> NOBLE by Zab Thai Is Thai Cuisine </v>
+        <v xml:space="preserve"> Amuz, dalam bahasa Prancis berarti menghibur dan menyenangkan, Pintu besar nan megah mengantar penikmat kuliner memasuki restoran fine dining seluas 350 meter persegi ini. Anda akan mengalami suasana ala Prancis diiringi alunan musik haluS, Kilauan cahaya yang dihasilkan dari lam... </v>
       </c>
     </row>
     <row r="167">
@@ -2838,49 +2838,49 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v xml:space="preserve"> Kafe Betawi </v>
+        <v xml:space="preserve"> GIOI </v>
       </c>
       <c r="B177" t="str">
-        <v>Indonesian</v>
+        <v>Asian</v>
       </c>
       <c r="C177" t="str">
-        <v>Casual Dining, Family Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D177" t="str">
-        <v xml:space="preserve"> With modernization of international food everywhere, we go back to ancestor tradition of cooking nature’s best ingredients. </v>
+        <v xml:space="preserve"> Restaurant nyaman untuk membawa keluarga atau makan malam bersama pasangan , Restaurant yang didesain homey, terlihat dari meja-mejanya yang besar seperti berada di ruangan makan membuat para pecinta kuliner menjadi nyaman  </v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v xml:space="preserve"> Kafe Betawi </v>
+        <v xml:space="preserve"> Tanamera Coffee </v>
       </c>
       <c r="B178" t="str">
-        <v>Indonesian</v>
+        <v>Asian, Western</v>
       </c>
       <c r="C178" t="str">
-        <v>Casual Dining, Family Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D178" t="str">
-        <v xml:space="preserve"> With modernization of international food everywhere, we go back to ancestor tradition of cooking nature’s best ingredients. </v>
+        <v xml:space="preserve"> Tempat nongkrong sambil menikmati minuman kopi dari biji kopi yg fresh dan pilihan yg berkualitas </v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v xml:space="preserve"> BlueZone Center </v>
+        <v xml:space="preserve"> Legend Of Noodle </v>
       </c>
       <c r="B179" t="str">
-        <v>Western</v>
+        <v>Korean</v>
       </c>
       <c r="C179" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D179" t="str">
-        <v xml:space="preserve"> Your one stop shop for a healthier lifestyle </v>
+        <v xml:space="preserve"> Korean kitchen serving seafood, soup &amp; noodles, plus kimchi &amp; other classics in cozy quarters </v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v xml:space="preserve"> Yoisho Ramen </v>
+        <v xml:space="preserve"> Okuzono </v>
       </c>
       <c r="B180" t="str">
         <v>Japanese</v>
@@ -2889,91 +2889,91 @@
         <v>Casual Dining</v>
       </c>
       <c r="D180" t="str">
-        <v xml:space="preserve"> Ramen merupakan masakan khas jepang yang terdiri dari mie dengan kuah kental dan daging (yang biasanya menggunakan sliced pork, beef atau chicken) tentunya sudah tidak menjadi makanan yang asing lagi di telinga kita. Kali ini, telah hadir sebuah restoran dengan spesialisasi menu ... </v>
+        <v xml:space="preserve"> Okuzono Japanese Dining, Best Japanese dining experience in Town </v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v xml:space="preserve"> Umauma Eatery &amp; Shop </v>
+        <v xml:space="preserve"> Kafe Betawi </v>
       </c>
       <c r="B181" t="str">
-        <v xml:space="preserve">Coffees, Indonesian, </v>
+        <v>Indonesian</v>
       </c>
       <c r="C181" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Family Dining</v>
       </c>
       <c r="D181" t="str">
-        <v xml:space="preserve"> Awesome healthier food, fresh juices, coffee, home decor &amp; houseplants </v>
+        <v xml:space="preserve"> With modernization of international food everywhere, we go back to ancestor tradition of cooking nature’s best ingredients. </v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v xml:space="preserve"> Kafe Betawi </v>
+        <v xml:space="preserve"> NIDCIELO </v>
       </c>
       <c r="B182" t="str">
-        <v>Indonesian</v>
+        <v>Western</v>
       </c>
       <c r="C182" t="str">
-        <v>Cafe, Dessert Parlor, Ice Cream Parlor</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D182" t="str">
-        <v xml:space="preserve"> Ice Cream Bar </v>
+        <v xml:space="preserve"> Gunawarman street is a crowd-puller when it comes to Jakarta’s nightlife, and Nidcielo Tapas Bar &amp; Restaurant is adding a layer of zest to the scene with a Spanish concept hiding Asian influences that will have Jakartans slowly falling in love.  </v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v xml:space="preserve"> Kafe Betawi </v>
+        <v xml:space="preserve"> Txoko </v>
       </c>
       <c r="B183" t="str">
-        <v>Indonesian</v>
+        <v>Western</v>
       </c>
       <c r="C183" t="str">
-        <v>Dessert Parlor, Ice Cream Parlor</v>
+        <v>Casual Dining, Lounge, Wine Cellar</v>
       </c>
       <c r="D183" t="str">
-        <v xml:space="preserve"> Pantja is a cocktail bar and restaurant situated in a strategic location next to Jakarta’s Business District. The restaurant on the first floor focuses on fire and grain: wood fire grill serving delicious steaks, and freshly made pasta every day. </v>
+        <v xml:space="preserve"> Txoko brings the flavours of the Basque Cuisinetotheheart of batavia </v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v xml:space="preserve"> BlueZone Center </v>
+        <v xml:space="preserve"> Crazy Uncle </v>
       </c>
       <c r="B184" t="str">
-        <v>Western</v>
+        <v>Italian</v>
       </c>
       <c r="C184" t="str">
-        <v>Casual Dining</v>
+        <v>Lounge, Wine Cellar</v>
       </c>
       <c r="D184" t="str">
-        <v xml:space="preserve"> Burger Grill is Burger Restaurant </v>
+        <v xml:space="preserve"> Crazy Uncle? Nama yang terdengar cukup unik ya IC friends. Yup, restaurant yang berada dijalan Wolter Monginsidi, Jakarta Selatan ini memang punya nama yang unik, yang dipilih langsung oleh sang owner karena sesuai dengan dirinya. Crazy Uncle sendiri bisa dibilang merupakan resta... </v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v xml:space="preserve"> Yoisho Ramen </v>
+        <v xml:space="preserve"> Marutama Ra-men </v>
       </c>
       <c r="B185" t="str">
         <v>Japanese</v>
       </c>
       <c r="C185" t="str">
-        <v>Fast Food</v>
+        <v>Casual Dining, Restaurant &amp; Bar, Live Band</v>
       </c>
       <c r="D185" t="str">
-        <v xml:space="preserve"> Burger stacked with soul and a whole lotta attitude </v>
+        <v xml:space="preserve"> Authentic Japanese Ra-men with award winning Tamago </v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v xml:space="preserve"> Umauma Eatery &amp; Shop </v>
+        <v xml:space="preserve"> Burger Plan </v>
       </c>
       <c r="B186" t="str">
-        <v xml:space="preserve">Coffees, Indonesian, </v>
+        <v>Western</v>
       </c>
       <c r="C186" t="str">
-        <v>Casual Dining, Lounge</v>
+        <v>Restaurant &amp; Bar, Live Band</v>
       </c>
       <c r="D186" t="str">
-        <v xml:space="preserve"> Contemporary mainstay with a light-filled, fashionable interior turning out refined Japanese dishes. </v>
+        <v xml:space="preserve"> Burger Plan adalah Restaurant yang menyajikan Burger yang istimewa </v>
       </c>
     </row>
     <row r="187">
@@ -3048,71 +3048,77 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v xml:space="preserve"> Penang Bistro </v>
+        <v xml:space="preserve"> Paris Sorbet </v>
       </c>
       <c r="B192" t="str">
-        <v>Malaysian, Singaporean</v>
+        <v>Western</v>
       </c>
       <c r="C192" t="str">
-        <v>Casual Dining, Family Dining</v>
+        <v>Cafe, Dessert Parlor, Ice Cream Parlor</v>
       </c>
       <c r="D192" t="str">
-        <v xml:space="preserve"> Restauran Malaysia bernuansa casual dan elegan ini menyajikan beragam menu yg menarik, plus banquet. </v>
+        <v xml:space="preserve"> Ice Cream Bar </v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v xml:space="preserve"> Penang Bistro </v>
+        <v xml:space="preserve"> Pantja </v>
       </c>
       <c r="B193" t="str">
-        <v>Malaysian, Singaporean</v>
+        <v>Indonesian</v>
       </c>
       <c r="C193" t="str">
-        <v>Casual Dining, Family Dining</v>
+        <v>Dessert Parlor, Ice Cream Parlor</v>
       </c>
       <c r="D193" t="str">
-        <v xml:space="preserve"> Restauran Malaysia bernuansa casual dan elegan ini menyajikan beragam menu yg menarik, plus banquet. </v>
+        <v xml:space="preserve"> Pantja is a cocktail bar and restaurant situated in a strategic location next to Jakarta’s Business District. The restaurant on the first floor focuses on fire and grain: wood fire grill serving delicious steaks, and freshly made pasta every day. </v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v xml:space="preserve"> Penang Bistro </v>
+        <v xml:space="preserve"> Burger Grill </v>
       </c>
       <c r="B194" t="str">
-        <v>Malaysian, Singaporean</v>
+        <v>Western</v>
       </c>
       <c r="C194" t="str">
-        <v>Casual Dining, Family Dining</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D194" t="str">
-        <v xml:space="preserve"> Restauran Malaysia bernuansa casual dan elegan ini menyajikan beragam menu yg menarik, plus banquet. </v>
+        <v xml:space="preserve"> Burger Grill is Burger Restaurant </v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v xml:space="preserve"> Greyhound Cafe </v>
+        <v xml:space="preserve"> Three Buns </v>
       </c>
       <c r="B195" t="str">
-        <v>Thai, Western</v>
+        <v>Western</v>
       </c>
       <c r="C195" t="str">
-        <v>Casual Dining</v>
+        <v>Fast Food</v>
+      </c>
+      <c r="D195" t="str">
+        <v xml:space="preserve"> Burger stacked with soul and a whole lotta attitude </v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v xml:space="preserve"> LAVVA </v>
+        <v xml:space="preserve"> Ootoya </v>
       </c>
       <c r="B196" t="str">
-        <v>Western</v>
+        <v>Japanese</v>
       </c>
       <c r="C196" t="str">
         <v>Casual Dining, Lounge</v>
       </c>
+      <c r="D196" t="str">
+        <v xml:space="preserve"> Contemporary mainstay with a light-filled, fashionable interior turning out refined Japanese dishes. </v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v xml:space="preserve"> Penang Bistro </v>
+        <v xml:space="preserve"> Tokyo Skipjack </v>
       </c>
       <c r="B197" t="str">
         <v>Western, Japanese</v>
@@ -3121,63 +3127,60 @@
         <v>Casual Dining</v>
       </c>
       <c r="D197" t="str">
-        <v xml:space="preserve"> Javanese Restaurant &amp; Lunch Box </v>
+        <v xml:space="preserve"> Restaurant is built in 1950s style house in Kebayoran Baru, Southern of Jakarta. With a concept of Chinese peranakan, we strive to serve the forgotten authentic food from the past. </v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v xml:space="preserve"> Penang Bistro </v>
+        <v xml:space="preserve"> Meradelima </v>
       </c>
       <c r="B198" t="str">
         <v>Indonesian, Chinese</v>
       </c>
       <c r="C198" t="str">
-        <v>Casual Dining</v>
+        <v>Casual Dining, Family Dining</v>
       </c>
       <c r="D198" t="str">
-        <v xml:space="preserve"> Javanese Restaurant &amp; Lunch Box </v>
+        <v xml:space="preserve"> Restauran Steak &amp; Grill plus Bar yg jg menyajikan menu makanan Jepang dengan suasana santai </v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v xml:space="preserve"> Penang Bistro </v>
+        <v xml:space="preserve"> Tokyo Skipjack  </v>
       </c>
       <c r="B199" t="str">
         <v>Western, Japanese</v>
       </c>
       <c r="C199" t="str">
-        <v>Casual Dining, Cafe</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D199" t="str">
-        <v xml:space="preserve"> RUCIs Joint is a Art Cafe Bar, Cafe by Day . Neighborhood bar by night </v>
+        <v xml:space="preserve"> Smoky and sweet. Hickory Smoked BBQ always hit </v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v xml:space="preserve"> Greyhound Cafe </v>
+        <v xml:space="preserve"> Wingstop </v>
       </c>
       <c r="B200" t="str">
         <v>American</v>
       </c>
       <c r="C200" t="str">
-        <v>Casual Dining, Family Dining, Food Court</v>
+        <v>Fast Food</v>
       </c>
       <c r="D200" t="str">
-        <v xml:space="preserve"> Contemporary cafe offering a health-conscious, seafood-focused menu with some organic dishes. </v>
+        <v xml:space="preserve"> Familiar Japanese fare &amp; Indian curries on offer in a relaxed, mall-based kitchen. </v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v xml:space="preserve"> LAVVA </v>
+        <v xml:space="preserve"> Go! Curry </v>
       </c>
       <c r="B201" t="str">
         <v xml:space="preserve">Thai, Japanese, </v>
       </c>
       <c r="C201" t="str">
-        <v>Family Dining, Food Court</v>
-      </c>
-      <c r="D201" t="str">
-        <v xml:space="preserve"> Kopi Bangi adalah Restoran peranakan Melayu  </v>
+        <v>Casual Dining, Family Dining</v>
       </c>
     </row>
     <row r="202">
@@ -3252,142 +3255,136 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v xml:space="preserve"> Stack  </v>
+        <v xml:space="preserve"> Dapur Solo </v>
       </c>
       <c r="B207" t="str">
-        <v>Western</v>
+        <v>Indonesian, Jawa</v>
       </c>
       <c r="C207" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D207" t="str">
-        <v xml:space="preserve"> Stacking with Real Goodness </v>
+        <v xml:space="preserve"> A Bowl of Goodness </v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v xml:space="preserve"> Mister - Sunday </v>
+        <v xml:space="preserve"> Dapur Solo </v>
       </c>
       <c r="B208" t="str">
-        <v>Western, Asian</v>
+        <v>Indonesian, Jawa</v>
       </c>
       <c r="C208" t="str">
-        <v>Breakfast, Lunch, Dinner</v>
+        <v>Cafe, Lounge</v>
       </c>
       <c r="D208" t="str">
-        <v xml:space="preserve"> Open-plan seating with natural lighting, serving comfort food with Asian twist  </v>
+        <v xml:space="preserve"> Kedai Kafe menyajikan Live music </v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v xml:space="preserve"> Thai Street  </v>
+        <v xml:space="preserve"> Ruci's Joint </v>
       </c>
       <c r="B209" t="str">
-        <v>Thai</v>
+        <v>Western, Asian</v>
       </c>
       <c r="C209" t="str">
-        <v>Lunch, Dinner</v>
+        <v>Casual Dining, Cafe, Lounge</v>
       </c>
       <c r="D209" t="str">
-        <v xml:space="preserve"> Inspired by the street food in Bangkok </v>
+        <v xml:space="preserve"> La Madame is a new Indonesian restaurant plus hair salon and boutique </v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v xml:space="preserve"> Kokonut &amp; Curtains  </v>
+        <v xml:space="preserve"> Sop Ikan Batam </v>
       </c>
       <c r="B210" t="str">
-        <v xml:space="preserve">Western, Asian, </v>
+        <v>Indonesian</v>
       </c>
       <c r="C210" t="str">
-        <v>Casual Dining</v>
+        <v>Cafe, Lounge</v>
       </c>
       <c r="D210" t="str">
-        <v xml:space="preserve"> Kokonut &amp; Curtains adalah sebuah Restaurant Yang berkonsep Bali Di Jakarta Yang menyajikan hidangan marksman Yang least dengan Susana Yang santai cook banger busy hangout bareng keluarga atau temen </v>
+        <v xml:space="preserve"> Vietnamese Cafe </v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v xml:space="preserve"> The Rosemary British Gastropub </v>
+        <v xml:space="preserve"> Bangi Kopi  </v>
       </c>
       <c r="B211" t="str">
-        <v>Asian, Indonesian</v>
+        <v>Malaysian, Asian</v>
       </c>
       <c r="C211" t="str">
-        <v>Casual Dining, Cafe</v>
-      </c>
-      <c r="D211" t="str">
-        <v xml:space="preserve"> Serving you the best of modern British comfort food as well as a worldwide selection of beers and cocktails.Located in Jakartas CBD, The Rosemary is a sanctuary for office workers and is the best place to hold your casual meetings.So get in and have a beer or two with your mates ... </v>
+        <v>Casual Dining, Cafe, Lounge</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v xml:space="preserve"> Stack  </v>
+        <v xml:space="preserve"> Fedwell </v>
       </c>
       <c r="B212" t="str">
-        <v>Western</v>
+        <v>Western, Asian</v>
       </c>
       <c r="C212" t="str">
-        <v>Cafe, Coffee Shop</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D212" t="str">
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> A Bowl of Goodness </v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v xml:space="preserve"> Mister - Sunday </v>
+        <v xml:space="preserve"> Kedai &amp; Kafe Maciko </v>
       </c>
       <c r="B213" t="str">
-        <v>Western, Asian</v>
+        <v xml:space="preserve">Asian, Chinese, </v>
       </c>
       <c r="C213" t="str">
-        <v>Casual Dining, Cafe, Coffee Shop</v>
+        <v>Cafe, Lounge</v>
       </c>
       <c r="D213" t="str">
-        <v xml:space="preserve"> Tempat Nongkrong Anak Muda di Area Jakarta Selatan </v>
+        <v xml:space="preserve"> Kedai Kafe menyajikan Live music </v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v xml:space="preserve"> Thai Street  </v>
+        <v xml:space="preserve"> La Madame Peranakan Cusine and Bar </v>
       </c>
       <c r="B214" t="str">
-        <v>Thai</v>
+        <v>Chinese, Indonesian</v>
       </c>
       <c r="C214" t="str">
-        <v>Cafe, Coffee Shop</v>
+        <v>Casual Dining, Cafe, Lounge</v>
       </c>
       <c r="D214" t="str">
-        <v xml:space="preserve"> cozy place to stay with your coffee </v>
+        <v xml:space="preserve"> La Madame is a new Indonesian restaurant plus hair salon and boutique </v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v xml:space="preserve"> Kokonut &amp; Curtains  </v>
+        <v xml:space="preserve"> La Madame Resto </v>
       </c>
       <c r="B215" t="str">
-        <v xml:space="preserve">Western, Asian, </v>
+        <v>Indonesian, Asian</v>
       </c>
       <c r="C215" t="str">
-        <v>Coffee Shop</v>
+        <v>Cafe, Lounge</v>
       </c>
       <c r="D215" t="str">
-        <v xml:space="preserve"> truly a place where both coffee lovers and casual coffee drinkers can enjoy </v>
+        <v xml:space="preserve"> Vietnamese Cafe </v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v xml:space="preserve"> The Rosemary British Gastropub </v>
+        <v xml:space="preserve"> SO PHO Vietnamese Cafe </v>
       </c>
       <c r="B216" t="str">
-        <v>Asian, Indonesian</v>
+        <v>Indonesian, Asian</v>
       </c>
       <c r="C216" t="str">
-        <v>Coffee Shop</v>
-      </c>
-      <c r="D216" t="str">
-        <v xml:space="preserve"> Japanese classics, from ramen to sushi, turned out in a tranquil, contemporary eatery. Featured Menu : Tamba Course, Ryoku Oh Shoku &amp; Yokitori Moriawase </v>
+        <v>Casual Dining, Cafe, Lounge</v>
       </c>
     </row>
     <row r="217">
@@ -3462,13 +3459,13 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v xml:space="preserve"> Pando'r </v>
+        <v xml:space="preserve"> Simetri Home Coffee Roaster </v>
       </c>
       <c r="B222" t="str">
-        <v xml:space="preserve">Japanese, French, </v>
+        <v>Western</v>
       </c>
       <c r="C222" t="str">
-        <v>Casual Dining, Bakery, Restaurant</v>
+        <v>Dessert Parlor, Drinks, Lunch</v>
       </c>
       <c r="D222" t="str">
         <v xml:space="preserve">  </v>
@@ -3476,27 +3473,27 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v xml:space="preserve"> Cooking Oppa~! </v>
+        <v xml:space="preserve"> Dreytop Cafe &amp; Eatery </v>
       </c>
       <c r="B223" t="str">
-        <v>French, Italian</v>
+        <v xml:space="preserve">International, Asian, </v>
       </c>
       <c r="C223" t="str">
-        <v>Bakery, Restaurant</v>
+        <v>Drinks, Lunch</v>
       </c>
       <c r="D223" t="str">
-        <v xml:space="preserve"> Cozy Colourful Spot For Korean Food. Favorites menu are : Topoki, Ramyeon &amp; Kimchi </v>
+        <v xml:space="preserve"> Turkish Cuisine &amp; Baklava House </v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v xml:space="preserve"> Kopi Kalyan  </v>
+        <v xml:space="preserve"> Fri3nds.Co Coffee &amp; Eatery </v>
       </c>
       <c r="B224" t="str">
-        <v>Korean</v>
+        <v>Asian, Indonesian</v>
       </c>
       <c r="C224" t="str">
-        <v>Fast Casual</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D224" t="str">
         <v xml:space="preserve">  </v>
@@ -3504,13 +3501,13 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v xml:space="preserve"> Pand'or </v>
+        <v xml:space="preserve"> Caffeine Bar </v>
       </c>
       <c r="B225" t="str">
         <v>Western, Indonesian</v>
       </c>
       <c r="C225" t="str">
-        <v>Casual Dining</v>
+        <v>Dessert Parlor, Cafe &amp; Bistro, Drinks</v>
       </c>
       <c r="D225" t="str">
         <v xml:space="preserve">  </v>
@@ -3518,13 +3515,13 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v xml:space="preserve"> Alkisah Rasa </v>
+        <v xml:space="preserve"> Tamba </v>
       </c>
       <c r="B226" t="str">
-        <v xml:space="preserve">Japanese, French, </v>
+        <v>Drinks</v>
       </c>
       <c r="C226" t="str">
-        <v>Casual Dining, Bakery, Corporate Meetings</v>
+        <v>Cafe &amp; Bistro, Drinks</v>
       </c>
       <c r="D226" t="str">
         <v xml:space="preserve">  </v>
@@ -3532,41 +3529,41 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v xml:space="preserve"> Pando'r </v>
+        <v xml:space="preserve"> The Maleo Cafe - Sotis Melawai </v>
       </c>
       <c r="B227" t="str">
-        <v xml:space="preserve">Japanese, French, </v>
+        <v>Indonesian, Western</v>
       </c>
       <c r="C227" t="str">
-        <v>Casual Dining</v>
+        <v>Dessert Parlor, Drinks, Lunch</v>
       </c>
       <c r="D227" t="str">
-        <v xml:space="preserve"> Japanese Restaurant </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v xml:space="preserve"> Cooking Oppa~! </v>
+        <v xml:space="preserve"> Turkuaz </v>
       </c>
       <c r="B228" t="str">
-        <v>French, Italian</v>
+        <v>Turkish, Middle Eastern</v>
       </c>
       <c r="C228" t="str">
-        <v>Casual Dining</v>
+        <v>Drinks, Lunch</v>
       </c>
       <c r="D228" t="str">
-        <v xml:space="preserve"> Tempat menikmati segala macam seafood dengan konsep dengan memakai tangan kosong, tanpa alat makan </v>
+        <v xml:space="preserve"> Turkish Cuisine &amp; Baklava House </v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v xml:space="preserve"> Kopi Kalyan  </v>
+        <v xml:space="preserve"> SOULFOOD </v>
       </c>
       <c r="B229" t="str">
-        <v>Korean</v>
+        <v>Indonesian, Asian</v>
       </c>
       <c r="C229" t="str">
-        <v>Dessert Parlor, Drinks, Breakfast</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D229" t="str">
         <v xml:space="preserve">  </v>
@@ -3574,30 +3571,30 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v xml:space="preserve"> Pand'or </v>
+        <v xml:space="preserve"> Kona Koffie </v>
       </c>
       <c r="B230" t="str">
-        <v>Western, Indonesian</v>
+        <v xml:space="preserve">Asian, Western, </v>
       </c>
       <c r="C230" t="str">
-        <v>Drinks, Breakfast</v>
+        <v>Dessert Parlor, Cafe &amp; Bistro, Drinks</v>
       </c>
       <c r="D230" t="str">
-        <v xml:space="preserve"> Office Building Restaurant </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v xml:space="preserve"> Alkisah Rasa </v>
+        <v xml:space="preserve"> Kilo Kitchen  </v>
       </c>
       <c r="B231" t="str">
-        <v xml:space="preserve">Japanese, French, </v>
+        <v>Western, Italian</v>
       </c>
       <c r="C231" t="str">
-        <v>Cafe &amp; Bistro, Drinks, Lunch</v>
+        <v>Cafe &amp; Bistro, Drinks</v>
       </c>
       <c r="D231" t="str">
-        <v xml:space="preserve"> Beautika adalah Restaurant Khas Manado </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="232">
@@ -3742,35 +3739,35 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v xml:space="preserve"> On Three </v>
+        <v xml:space="preserve"> Gamalama Cafe &amp; Resto </v>
       </c>
       <c r="B242" t="str">
         <v xml:space="preserve">Western, International, </v>
       </c>
       <c r="C242" t="str">
-        <v>Dessert Parlor, Cafe &amp; Bistro, Drinks</v>
+        <v>Cafe &amp; Bistro, Bar, Drinks</v>
       </c>
       <c r="D242" t="str">
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> APREZ Cafe The Energy </v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v xml:space="preserve"> Salt &amp; Pepper Time </v>
+        <v xml:space="preserve"> Cazasuki Restaurant - Blok M </v>
       </c>
       <c r="B243" t="str">
         <v>International, Asian</v>
       </c>
       <c r="C243" t="str">
-        <v>Cafe &amp; Bistro, Drinks</v>
+        <v>Bar, Drinks</v>
       </c>
       <c r="D243" t="str">
-        <v xml:space="preserve"> Salt &amp; Pepper Catering JakartaSALT &amp; PEPPER - halal stylish culinary service </v>
+        <v xml:space="preserve"> Gutsy dishes &amp; House of Cocktails </v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v xml:space="preserve"> Walking Drums Treat </v>
+        <v xml:space="preserve"> Pison Coffee </v>
       </c>
       <c r="B244" t="str">
         <v xml:space="preserve">Indonesian, Asian, </v>
@@ -3779,46 +3776,46 @@
         <v>Casual Dining</v>
       </c>
       <c r="D244" t="str">
-        <v xml:space="preserve"> Treats by Walking Drums Freshly Baked Everyday! Halal &amp; Tanpa Pengawet </v>
+        <v xml:space="preserve"> Cafe Professional muda </v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v xml:space="preserve"> Sarang Oci </v>
+        <v xml:space="preserve"> Midori Japanese Restaurant </v>
       </c>
       <c r="B245" t="str">
         <v>Asian, International</v>
       </c>
       <c r="C245" t="str">
-        <v>Cafe</v>
+        <v>Dessert Parlor, Drinks, Lunch</v>
       </c>
       <c r="D245" t="str">
-        <v xml:space="preserve"> Resaurant Sarang Oci adalah Restaurant Khas masakan Manado </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v xml:space="preserve"> Walking Drums </v>
+        <v xml:space="preserve"> Aprez Catering </v>
       </c>
       <c r="B246" t="str">
         <v>Indonesian</v>
       </c>
       <c r="C246" t="str">
-        <v>Dessert Parlor, Drinks, Lunch</v>
+        <v>Drinks, Lunch</v>
       </c>
       <c r="D246" t="str">
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> Sawangan Resto adalah Restaurant yang cocok untuk Hangout bersama keluarga </v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v xml:space="preserve"> On Three </v>
+        <v xml:space="preserve"> APREZ Café </v>
       </c>
       <c r="B247" t="str">
-        <v xml:space="preserve">Western, International, </v>
+        <v xml:space="preserve">Western, Italian, </v>
       </c>
       <c r="C247" t="str">
-        <v>Dessert Parlor, Cafe &amp; Bistro, Drinks</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D247" t="str">
         <v xml:space="preserve"> Coffeeshop, Restaurant  </v>
@@ -3826,13 +3823,13 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v xml:space="preserve"> Salt &amp; Pepper Time </v>
+        <v xml:space="preserve"> Mr Bitsy </v>
       </c>
       <c r="B248" t="str">
-        <v>International, Asian</v>
+        <v>Italian, Asian</v>
       </c>
       <c r="C248" t="str">
-        <v>Cafe &amp; Bistro, Drinks</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D248" t="str">
         <v xml:space="preserve"> Inspired by the region’s culinary wealth, Seribu Rasa (One Thousand Flavors) offers delectable local dishes and seafood that embody the richness of Southeast Asian and Indonesian Flavors. Each traditional recipe is prepared with the freshest ingredients and refined by our Chef’s ... </v>
@@ -3840,10 +3837,10 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v xml:space="preserve"> Walking Drums Treat </v>
+        <v xml:space="preserve"> Marcofee Bistro </v>
       </c>
       <c r="B249" t="str">
-        <v xml:space="preserve">Indonesian, Asian, </v>
+        <v xml:space="preserve">Asian, Indonesian, </v>
       </c>
       <c r="C249" t="str">
         <v>Casual Dining</v>
@@ -3854,13 +3851,13 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v xml:space="preserve"> Sarang Oci </v>
+        <v xml:space="preserve"> Mood Coffee House </v>
       </c>
       <c r="B250" t="str">
-        <v>Asian, International</v>
+        <v>Indonesian, Western</v>
       </c>
       <c r="C250" t="str">
-        <v>Cafe</v>
+        <v>Coffee Shop, Bakery, Corporate Meetings</v>
       </c>
       <c r="D250" t="str">
         <v xml:space="preserve">  </v>
@@ -3868,13 +3865,13 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v xml:space="preserve"> Walking Drums </v>
+        <v xml:space="preserve"> Sawangan Resto  </v>
       </c>
       <c r="B251" t="str">
         <v>Indonesian</v>
       </c>
       <c r="C251" t="str">
-        <v>Dessert Parlor, Drinks, Lunch</v>
+        <v>Bakery, Corporate Meetings</v>
       </c>
       <c r="D251" t="str">
         <v xml:space="preserve"> The Bar &amp; Lounge endows a fine variety of light snacks, tempting cocktails or a relaxing cup of tea. Located on the lobby level, it’s the perfect place if you’re looking for wonderful places to chill out in Jakarta.carte dgn pilihan makanan ala internasional dipadu dengan atmosfe... </v>
@@ -4028,10 +4025,10 @@
         <v>Sushi, Japanese</v>
       </c>
       <c r="C262" t="str">
-        <v>Cafe</v>
+        <v>Casual Dining</v>
       </c>
       <c r="D262" t="str">
-        <v xml:space="preserve"> Coffee to Go </v>
+        <v xml:space="preserve"> AOKI Japanese Cuisine has been reputed as one of the most stylish dining venues in the city. With a modern and private dining concept, our signature Japanese restaurant in Jakarta Selatan serves fusion Japanese cuisine that will leave your senses completely amazed.​ </v>
       </c>
     </row>
     <row r="263">
@@ -4045,7 +4042,7 @@
         <v>Casual Dining</v>
       </c>
       <c r="D263" t="str">
-        <v xml:space="preserve"> Italian Restaurant </v>
+        <v xml:space="preserve"> The famous Le Gran Café Restaurant in Jakarta Selatan will tease your palate with an array of superb International buffet choices and an extensive a la carte menu featuring traditional Indonesian specialties as well as Western, Asian and Japanese cuisine.  </v>
       </c>
     </row>
     <row r="264">
@@ -4056,10 +4053,10 @@
         <v>Indonesian, Asian</v>
       </c>
       <c r="C264" t="str">
-        <v>Coffee Shop</v>
+        <v>Cafe &amp; Bistro, Drinks, Lunch</v>
       </c>
       <c r="D264" t="str">
-        <v xml:space="preserve"> Casual restaurant for all segment </v>
+        <v xml:space="preserve"> Ayam Keprabon adalah makanan khas Solo </v>
       </c>
     </row>
     <row r="265">
@@ -4070,10 +4067,10 @@
         <v>Indonesian</v>
       </c>
       <c r="C265" t="str">
-        <v>Casual Dining</v>
+        <v>Drinks, Lunch</v>
       </c>
       <c r="D265" t="str">
-        <v xml:space="preserve"> Rajas Coffee adalah Coffeeshop yang memiliki konsep yang santai dan juga cocok untuk hangout bareng temen maupun keluarga. selain menyajikan varian coffee di rajas coffee juga menyajikan menu menu andalan seperti iga sambal matah yang pasti nya enak. </v>
+        <v xml:space="preserve"> Relish the warm ambiance and choice cuisines from our best chef. All-day dining restaurant, expect an international and traditional dining experience from the establishment’s exquisite menus. </v>
       </c>
     </row>
     <row r="266">
@@ -4084,80 +4081,80 @@
         <v>Western</v>
       </c>
       <c r="C266" t="str">
-        <v>Casual Dining, Bar</v>
+        <v>Casual Dining, Lounge</v>
       </c>
       <c r="D266" t="str">
-        <v xml:space="preserve"> Di Selatan Jakarta Kopi, adalah Coffee Shop yang cocok untuk semua kalangan, memiliki beragam jenis varian minuman coffee dan non- coffee. </v>
+        <v xml:space="preserve"> Located on the lobby level, Barons Pub offers a warm, welcoming English pub-style setting for relaxing and unwinding throughout the day. In addition to hot stone meat specialties and snacks, the bar features a pool table and live music </v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v xml:space="preserve"> Kopi Lain Hati </v>
+        <v xml:space="preserve"> Cafe de France - Ambhara Hotel </v>
       </c>
       <c r="B267" t="str">
-        <v>Indonesian, Asian</v>
+        <v>French, International</v>
       </c>
       <c r="C267" t="str">
-        <v>Coffee Shop</v>
+        <v>Cafe</v>
       </c>
       <c r="D267" t="str">
-        <v xml:space="preserve"> Coffee to Go </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v xml:space="preserve"> Bell Pepper </v>
+        <v xml:space="preserve"> Alena's Kitchen - Dharmein Hotel </v>
       </c>
       <c r="B268" t="str">
-        <v xml:space="preserve">Italian, Asian, </v>
+        <v xml:space="preserve">Indonesian, Western, </v>
       </c>
       <c r="C268" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D268" t="str">
-        <v xml:space="preserve"> Italian Restaurant </v>
+        <v xml:space="preserve"> Located on the Ground Floor, Alena’s Kitchen offers selections of local signature and International food. Alena’s Kitchen Restaurant is designed to serve up an experience that takes advantage of our unique hotel, so we invite you to enjoy our specialties signature dish. </v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v xml:space="preserve"> The Falatehan Hotel Coffee Shop </v>
+        <v xml:space="preserve"> Seruni - Ambhara Hotel </v>
       </c>
       <c r="B269" t="str">
-        <v>Asian, Western</v>
+        <v>Western, International</v>
       </c>
       <c r="C269" t="str">
-        <v>Casual Dining</v>
+        <v>Coffee Shop</v>
       </c>
       <c r="D269" t="str">
-        <v xml:space="preserve"> Casual restaurant for all segment </v>
+        <v xml:space="preserve">  Superb selection of coffee and tea and a wide array of snacks, sandwiches and a la carte items. </v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v xml:space="preserve"> Raja's Coffee SCBD </v>
+        <v xml:space="preserve"> Dapur Pelangi - Ambhara Hotel </v>
       </c>
       <c r="B270" t="str">
-        <v xml:space="preserve">Indonesian, International, </v>
+        <v>International, Indonesian</v>
       </c>
       <c r="C270" t="str">
         <v>Casual Dining</v>
       </c>
       <c r="D270" t="str">
-        <v xml:space="preserve"> Rajas Coffee adalah Coffeeshop yang memiliki konsep yang santai dan juga cocok untuk hangout bareng temen maupun keluarga. selain menyajikan varian coffee di rajas coffee juga menyajikan menu menu andalan seperti iga sambal matah yang pasti nya enak. </v>
+        <v xml:space="preserve"> Our highly recommended Dapur Pelangi Restaurant is located at the lobby level. The a la carte menu offers both International favorites and Indonesian cuisine. A daily buffet is served for breakfast, lunch and dinner from Monday to Friday. </v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v xml:space="preserve"> Di Selatan Jakarta  </v>
+        <v xml:space="preserve"> Basic Instinct Culinary </v>
       </c>
       <c r="B271" t="str">
-        <v>International, Asian</v>
+        <v>International, Indonesian</v>
       </c>
       <c r="C271" t="str">
-        <v>Cafe</v>
+        <v>Casual Dining, Bar</v>
       </c>
       <c r="D271" t="str">
-        <v xml:space="preserve"> Di Selatan Jakarta Kopi, adalah Coffee Shop yang cocok untuk semua kalangan, memiliki beragam jenis varian minuman coffee dan non- coffee. </v>
+        <v xml:space="preserve"> Presenting the freshest, most covetable ingredients in creative ways that indulge the taste buds. Featuring mouth-watering menu such as Crab Meat with Confit Egg in Lobster Bisque, Foie Gras, Lamb Chop, and many more. </v>
       </c>
     </row>
     <row r="272">
